--- a/Documents/Schedule.xlsx
+++ b/Documents/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Dropbox\Personal\Lambton College\4. Subjects\Term 3\1. BDM-3035 Big Data Capstone Project\Project\Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058F4502-F80A-4F4C-A012-39D68CF0561A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295E940E-F99E-4A4B-BC23-E3F98A99F351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E763465-032D-450D-AD1F-F6F9C88FD19E}"/>
   </bookViews>
@@ -230,9 +230,6 @@
     <t>Convolutional Neural Net</t>
   </si>
   <si>
-    <t>• Neural Net building process</t>
-  </si>
-  <si>
     <t>• Neural Net training process</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>• Data augmentation process</t>
+  </si>
+  <si>
+    <t>• Data splitting process</t>
   </si>
 </sst>
 </file>
@@ -843,9 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE24A6FF-09DB-4443-A773-5803A8DC460F}">
   <dimension ref="B2:V32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1002,14 +1000,14 @@
         <v>46</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O6" s="10"/>
       <c r="Q6" t="s">
         <v>55</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
@@ -1052,7 +1050,7 @@
         <v>49</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
@@ -1098,24 +1096,24 @@
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H13" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H14" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="T14" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
@@ -1277,45 +1275,45 @@
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="K22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="K22" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="Q22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
@@ -1323,24 +1321,24 @@
         <v>49</v>
       </c>
       <c r="K24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s">
         <v>49</v>
       </c>
       <c r="N25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q25" t="s">
         <v>49</v>
@@ -1348,7 +1346,7 @@
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
         <v>50</v>
@@ -1357,27 +1355,27 @@
         <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K27" t="s">
         <v>50</v>
       </c>
       <c r="N27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q27" t="s">
         <v>50</v>
@@ -1393,32 +1391,32 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="11"/>
       <c r="H30" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" s="12"/>
       <c r="H31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="N31" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.3">
@@ -1439,7 +1437,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
